--- a/_site/posts/2021-02-13-dataviz-makeover-02/data/1.1_clarity.xlsx
+++ b/_site/posts/2021-02-13-dataviz-makeover-02/data/1.1_clarity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awljiang\blog\_posts\2021-02-13-dataviz-makeover-02\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F714EFFF-CE4B-4AE5-B5C0-09D6340DD793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212DFE82-03AE-4212-8B55-8DC35A07E98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA9E1373-0CC8-425E-B53E-B90218400515}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>There’s no notes to define what is considered as “pro-vaccine”. Will responds of “1 – Strongly agree” and “2” be considered as “pro-vaccine” or only a responds of “1  - Strongly agree” be considered as “pro-vaccine”? Or will “3” also be considered as “pro-vaccine”?</t>
   </si>
   <si>
-    <t>The title of the right chart did not indicate whether the vaccination refers to within which period e.g. “this week” or “a year from now”.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The scaling of the bar charts are different, the bars on the right chart is longer than the bars on the left chart for the same %. </t>
   </si>
   <si>
@@ -62,10 +59,13 @@
     <t>Include a note to indicate what "pro-vaccine" refers to, or to use the same colour (but different tone) for responses classified as "pro-vaccine".</t>
   </si>
   <si>
-    <t>Reflect title as "% of people who strongly agreed to vaccination if made available to him/her this week."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amend the scale of the x-axis such that both charts shows same scaling/size. </t>
+    <t>The chart did not show the confidence interval of the proportion.</t>
+  </si>
+  <si>
+    <t>Compute the confidence interval and include in the chart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amend the scale of the x-axis such that both charts shows same scaling/size, if bar charts are used for both charts. </t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -456,7 +456,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
